--- a/otros/Remesa nuevos socios.xlsx
+++ b/otros/Remesa nuevos socios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2880,7 +2880,7 @@
   <dimension ref="A1:Y997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="N8" sqref="A8:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
